--- a/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,55 +22,85 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>007130</t>
+  </si>
+  <si>
     <t>270001</t>
   </si>
   <si>
-    <t>007130</t>
-  </si>
-  <si>
     <t>011229</t>
   </si>
   <si>
     <t>011230</t>
   </si>
   <si>
+    <t>中庚小盘价值股票</t>
+  </si>
+  <si>
     <t>广发聚富混合</t>
   </si>
   <si>
-    <t>中庚小盘价值股票</t>
-  </si>
-  <si>
     <t>创金合信数字经济主题股票A</t>
   </si>
   <si>
     <t>创金合信数字经济主题股票C</t>
   </si>
   <si>
+    <t>21.97</t>
+  </si>
+  <si>
+    <t>16.75</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>93.26</t>
+  </si>
+  <si>
     <t>59.38</t>
   </si>
   <si>
-    <t>93.26</t>
-  </si>
-  <si>
     <t>92.21</t>
   </si>
   <si>
+    <t>3.63</t>
+  </si>
+  <si>
     <t>1.50</t>
   </si>
   <si>
-    <t>3.63</t>
-  </si>
-  <si>
     <t>3.27</t>
+  </si>
+  <si>
+    <t>0.7975</t>
+  </si>
+  <si>
+    <t>0.2512</t>
+  </si>
+  <si>
+    <t>0.0245</t>
+  </si>
+  <si>
+    <t>0.0131</t>
   </si>
 </sst>
 </file>
@@ -428,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,84 +480,114 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
@@ -1,138 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>007130</t>
-  </si>
-  <si>
-    <t>270001</t>
-  </si>
-  <si>
-    <t>011229</t>
-  </si>
-  <si>
-    <t>011230</t>
-  </si>
-  <si>
-    <t>中庚小盘价值股票</t>
-  </si>
-  <si>
-    <t>广发聚富混合</t>
-  </si>
-  <si>
-    <t>创金合信数字经济主题股票A</t>
-  </si>
-  <si>
-    <t>创金合信数字经济主题股票C</t>
-  </si>
-  <si>
-    <t>21.97</t>
-  </si>
-  <si>
-    <t>16.75</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>93.26</t>
-  </si>
-  <si>
-    <t>59.38</t>
-  </si>
-  <si>
-    <t>92.21</t>
-  </si>
-  <si>
-    <t>3.63</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>3.27</t>
-  </si>
-  <si>
-    <t>0.7975</t>
-  </si>
-  <si>
-    <t>0.2512</t>
-  </si>
-  <si>
-    <t>0.0245</t>
-  </si>
-  <si>
-    <t>0.0131</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,141 +446,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0801</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8959</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.17</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1368,13 +1433,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002328</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.62</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6201</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.38</v>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.17</v>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2065,7 +2066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,17 +2077,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2096,14 +2117,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.38</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2112,14 +2155,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.62</v>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2128,14 +2193,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="5">
@@ -2144,14 +2315,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>1.17</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -2160,13 +2331,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,205 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚小盘价值股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7975</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>59.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2512</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011229</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011230</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -685,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -715,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.03</t>
+          <t>38.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>82.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0801</t>
+          <t>0.7986</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -753,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011229</t>
+          <t>004359</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票A</t>
+          <t>创金合信量化核心混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0633</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -791,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011230</t>
+          <t>004360</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票C</t>
+          <t>创金合信量化核心混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -885,36 +809,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002295</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合A</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>26.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.05</t>
+          <t>86.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1279</t>
+          <t>0.6201</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -923,36 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011229</t>
+          <t>200012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票A</t>
+          <t>长城中小盘成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.98</t>
+          <t>84.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0720</t>
+          <t>0.3061</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -961,36 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011765</t>
+          <t>206002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴银高端制造混合A</t>
+          <t>鹏华精选成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0421</t>
+          <t>0.2141</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -999,36 +923,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003062</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华通利灵活配置混合A</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20.56</t>
+          <t>76.99</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0379</t>
+          <t>0.1097</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1037,36 +961,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011230</t>
+          <t>002295</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信数字经济主题股票C</t>
+          <t>广发稳安灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.98</t>
+          <t>70.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0346</t>
+          <t>0.0829</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1075,36 +999,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519115</t>
+          <t>011765</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浦银安盛红利精选混合</t>
+          <t>兴银高端制造混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.33</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0311</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1123,26 +1047,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1151,36 +1075,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003063</t>
+          <t>005146</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华通利灵活配置混合C</t>
+          <t>兴银丰润灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20.56</t>
+          <t>93.36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1189,112 +1113,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008890</t>
+          <t>008604</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
+          <t>广发稳安灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>62.44</t>
+          <t>70.60</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008604</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.05</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1689,7 +1537,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1719,36 +1567,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>002295</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>广发稳安灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.96</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>82.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6201</t>
+          <t>0.1279</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1757,36 +1605,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>200012</t>
+          <t>011229</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长城中小盘成长混合</t>
+          <t>创金合信数字经济主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.65</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.26</t>
+          <t>81.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3061</t>
+          <t>0.0720</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1795,36 +1643,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>206002</t>
+          <t>011765</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华精选成长混合</t>
+          <t>兴银高端制造混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2141</t>
+          <t>0.0421</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1833,36 +1681,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>003062</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>银华通利灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.99</t>
+          <t>20.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1097</t>
+          <t>0.0379</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1871,36 +1719,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002295</t>
+          <t>011230</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合A</t>
+          <t>创金合信数字经济主题股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>81.98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0829</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1909,36 +1757,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011765</t>
+          <t>519115</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴银高端制造混合A</t>
+          <t>浦银安盛红利精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>88.33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0311</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1957,26 +1805,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1985,36 +1833,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005146</t>
+          <t>003063</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>兴银丰润灵活配置混合</t>
+          <t>银华通利灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>20.56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2023,36 +1871,112 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008604</t>
+          <t>008890</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合C</t>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>70.60</t>
+          <t>62.44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0009</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2011,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2117,36 +2041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.21</t>
+          <t>23.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.35</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7986</t>
+          <t>1.0801</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2155,36 +2079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004359</t>
+          <t>011229</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信量化核心混合A</t>
+          <t>创金合信数字经济主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0633</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2193,36 +2117,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004360</t>
+          <t>011230</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信量化核心混合C</t>
+          <t>创金合信数字经济主题股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0287</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2236,128 +2160,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.09</v>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.38</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.38</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.17</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.09</v>
       </c>
     </row>
@@ -583,6 +600,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1423</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5445</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4443</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008629</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008630</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002328</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1150,7 +1679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1510,7 +2039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1984,7 +2513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2154,7 +2683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
+++ b/数据整理/stocks/A股/上证主板/603979-金诚信.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>3.95</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.38</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.38</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.17</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.09</v>
       </c>
     </row>
@@ -600,6 +617,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7613</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5149</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004046</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4722</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2907</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004047</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008629</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008630</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +2134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +2304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1679,7 +2702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2039,7 +3062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2513,7 +3536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2683,7 +3706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
